--- a/Resultados/RESULTADOS_8.xlsx
+++ b/Resultados/RESULTADOS_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.56</v>
+        <v>1.29</v>
       </c>
       <c r="E2" t="n">
-        <v>64.16</v>
+        <v>77.23</v>
       </c>
       <c r="F2" t="n">
         <v>55.72</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="E3" t="n">
-        <v>40.85</v>
+        <v>44.98</v>
       </c>
       <c r="F3" t="n">
         <v>36.48</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.71</v>
+        <v>2.54</v>
       </c>
       <c r="E4" t="n">
-        <v>36.87</v>
+        <v>39.34</v>
       </c>
       <c r="F4" t="n">
         <v>33.25</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="E5" t="n">
-        <v>35.08</v>
+        <v>36.82</v>
       </c>
       <c r="F5" t="n">
         <v>31.8</v>
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="E6" t="n">
-        <v>33.79</v>
+        <v>35.11</v>
       </c>
       <c r="F6" t="n">
         <v>30.69</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="E7" t="n">
-        <v>33.66</v>
+        <v>34.73</v>
       </c>
       <c r="F7" t="n">
         <v>30.68</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.01</v>
+        <v>2.93</v>
       </c>
       <c r="E8" t="n">
-        <v>33.17</v>
+        <v>34.08</v>
       </c>
       <c r="F8" t="n">
         <v>30.27</v>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="E9" t="n">
-        <v>32.81</v>
+        <v>33.57</v>
       </c>
       <c r="F9" t="n">
         <v>29.98</v>
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="E10" t="n">
-        <v>32.52</v>
+        <v>33.18</v>
       </c>
       <c r="F10" t="n">
         <v>29.73</v>
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.07</v>
+        <v>3.02</v>
       </c>
       <c r="E11" t="n">
-        <v>32.57</v>
+        <v>33.16</v>
       </c>
       <c r="F11" t="n">
         <v>29.82</v>
@@ -1377,6 +1377,662 @@
         <v>1</v>
       </c>
       <c r="Z11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32.78</v>
+      </c>
+      <c r="F12" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="G12" t="n">
+        <v>77.06999999999999</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23</v>
+      </c>
+      <c r="J12" t="n">
+        <v>191.79</v>
+      </c>
+      <c r="K12" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11</v>
+      </c>
+      <c r="M12" t="n">
+        <v>21</v>
+      </c>
+      <c r="N12" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="O12" t="n">
+        <v>23888.73</v>
+      </c>
+      <c r="P12" t="n">
+        <v>332.03</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R12" t="n">
+        <v>137.48</v>
+      </c>
+      <c r="S12" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>18337.24</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X12" t="n">
+        <v>54.43</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29.43</v>
+      </c>
+      <c r="G13" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>21</v>
+      </c>
+      <c r="J13" t="n">
+        <v>193.33</v>
+      </c>
+      <c r="K13" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12</v>
+      </c>
+      <c r="M13" t="n">
+        <v>19</v>
+      </c>
+      <c r="N13" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="O13" t="n">
+        <v>24078.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>323.84</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R13" t="n">
+        <v>133.51</v>
+      </c>
+      <c r="S13" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T13" t="n">
+        <v>16361.35</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="G14" t="n">
+        <v>92.25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>194.88</v>
+      </c>
+      <c r="K14" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13</v>
+      </c>
+      <c r="M14" t="n">
+        <v>17</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39.43</v>
+      </c>
+      <c r="O14" t="n">
+        <v>24268.67</v>
+      </c>
+      <c r="P14" t="n">
+        <v>314.85</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R14" t="n">
+        <v>125.97</v>
+      </c>
+      <c r="S14" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T14" t="n">
+        <v>12599.61</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X14" t="n">
+        <v>56.07</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>29.28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>103.34</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I15" t="n">
+        <v>17</v>
+      </c>
+      <c r="J15" t="n">
+        <v>196.42</v>
+      </c>
+      <c r="K15" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="L15" t="n">
+        <v>14</v>
+      </c>
+      <c r="M15" t="n">
+        <v>14</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="O15" t="n">
+        <v>24459.75</v>
+      </c>
+      <c r="P15" t="n">
+        <v>309.14</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R15" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="S15" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T15" t="n">
+        <v>13803.88</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X15" t="n">
+        <v>56.84</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="F16" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16</v>
+      </c>
+      <c r="J16" t="n">
+        <v>197.98</v>
+      </c>
+      <c r="K16" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="L16" t="n">
+        <v>15</v>
+      </c>
+      <c r="M16" t="n">
+        <v>11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>40.54</v>
+      </c>
+      <c r="O16" t="n">
+        <v>24651.58</v>
+      </c>
+      <c r="P16" t="n">
+        <v>303.87</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R16" t="n">
+        <v>125.52</v>
+      </c>
+      <c r="S16" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>12391.03</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X16" t="n">
+        <v>57.54</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E17" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>199.54</v>
+      </c>
+      <c r="K17" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="L17" t="n">
+        <v>16</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>24844.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>300.23</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R17" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T17" t="n">
+        <v>11485.28</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>58.19</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="G18" t="n">
+        <v>116.58</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>201.11</v>
+      </c>
+      <c r="K18" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="L18" t="n">
+        <v>17</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="O18" t="n">
+        <v>25037.53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>300.63</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R18" t="n">
+        <v>123.23</v>
+      </c>
+      <c r="S18" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T18" t="n">
+        <v>11250.91</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>58.83</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="G19" t="n">
+        <v>116.58</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15</v>
+      </c>
+      <c r="J19" t="n">
+        <v>202.68</v>
+      </c>
+      <c r="K19" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="L19" t="n">
+        <v>18</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>42.24</v>
+      </c>
+      <c r="O19" t="n">
+        <v>25231.66</v>
+      </c>
+      <c r="P19" t="n">
+        <v>302.86</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R19" t="n">
+        <v>123.26</v>
+      </c>
+      <c r="S19" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T19" t="n">
+        <v>11265.93</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X19" t="n">
+        <v>59.47</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
         <v>10</v>
       </c>
     </row>
